--- a/T_data数据汇总.xlsx
+++ b/T_data数据汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelly Jinzhe Liu\Desktop\Big-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E034CF-9ABD-4F9D-8F6E-71A0725B2F1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7677E62E-D9A4-46C2-963D-AB9B1BF9CDB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,6 +260,1245 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>资金(入)刘亿元</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$Y$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B789-4EC5-B8DA-463BC3A8BC29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>资金(出)朱亿元</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$Y$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$Y$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>238.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>381.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>187.84</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B789-4EC5-B8DA-463BC3A8BC29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1550925471"/>
+        <c:axId val="1550926719"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1550925471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1550926719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1550926719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1550925471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>487455</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>118783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3607A8A-46A7-46E7-9347-8D0905D64C0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1106,5 +2345,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/T_data数据汇总.xlsx
+++ b/T_data数据汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelly Jinzhe Liu\Desktop\Big-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7677E62E-D9A4-46C2-963D-AB9B1BF9CDB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59043AEA-A179-410C-B5FF-2AD6532CB6F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1464,16 +1464,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>487455</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>118783</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>308161</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>40342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1767,7 +1767,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/T_data数据汇总.xlsx
+++ b/T_data数据汇总.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelly Jinzhe Liu\Desktop\Big-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggary\Desktop\新增資料夾\Big-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7677E62E-D9A4-46C2-963D-AB9B1BF9CDB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D059FDF1-E42E-4E55-854B-69932FB65DAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -90,7 +90,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -114,7 +114,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -143,7 +143,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,13 +159,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -198,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,11 +221,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,9 +256,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -265,7 +277,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -302,7 +314,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-HK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -755,7 +767,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1550926719"/>
@@ -814,7 +826,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1550925471"/>
@@ -856,7 +868,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-HK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -893,7 +905,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-HK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1764,18 +1776,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1804,7 +1816,7 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +1893,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1958,7 +1970,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1966,76 +1978,77 @@
         <v>77.5</v>
       </c>
       <c r="C4" s="5">
-        <v>75.8</v>
+        <v>69.3</v>
       </c>
       <c r="D4" s="5">
-        <v>72.400000000000006</v>
+        <v>60.1</v>
       </c>
       <c r="E4" s="5">
+        <v>51.4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>52.9</v>
+      </c>
+      <c r="G4" s="5">
+        <v>55.1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>56.8</v>
+      </c>
+      <c r="I4" s="5">
+        <v>58.7</v>
+      </c>
+      <c r="J4" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="K4" s="5">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="L4" s="5">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="M4" s="5">
+        <v>66.7</v>
+      </c>
+      <c r="N4" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="O4" s="5">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="P4" s="5">
+        <v>67.3</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="R4" s="5">
+        <v>67.7</v>
+      </c>
+      <c r="S4" s="5">
+        <v>69.2</v>
+      </c>
+      <c r="T4" s="5">
         <v>71.099999999999994</v>
       </c>
-      <c r="F4" s="5">
-        <v>70.3</v>
-      </c>
-      <c r="G4" s="5">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="H4" s="5">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="I4" s="5">
-        <v>67.3</v>
-      </c>
-      <c r="J4" s="5">
-        <v>67.2</v>
-      </c>
-      <c r="K4" s="5">
-        <v>67</v>
-      </c>
-      <c r="L4" s="5">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="M4" s="5">
-        <v>66.8</v>
-      </c>
-      <c r="N4" s="5">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="O4" s="5">
-        <v>66.38</v>
-      </c>
-      <c r="P4" s="5">
-        <v>66.349999999999994</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>66.3</v>
-      </c>
-      <c r="R4" s="5">
-        <v>66.260000000000005</v>
-      </c>
-      <c r="S4" s="5">
-        <v>66.150000000000006</v>
-      </c>
-      <c r="T4" s="5">
-        <v>66.099999999999994</v>
-      </c>
       <c r="U4" s="5">
-        <v>66.03</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="V4" s="5">
-        <v>65.900000000000006</v>
+        <v>72.3</v>
       </c>
       <c r="W4" s="5">
-        <v>65.599999999999994</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="X4" s="5">
-        <v>65.3</v>
+        <v>73.5</v>
       </c>
       <c r="Y4" s="5">
-        <v>65.099999999999994</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="Z4" s="9"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2112,7 +2125,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,7 +2202,7 @@
         <v>10902</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -2266,10 +2279,10 @@
         <v>82958</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2296,7 +2309,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2323,19 +2336,19 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15" s="2"/>
     </row>
   </sheetData>

--- a/T_data数据汇总.xlsx
+++ b/T_data数据汇总.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelly Jinzhe Liu\Desktop\Big-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggary\Desktop\新增資料夾\Big-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E14FDF1-3CD7-4072-8531-EAA15F6C4DF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8338B111-E68F-4BC8-BDE2-4DB6D3AE09D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -90,7 +90,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -114,7 +114,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -143,7 +143,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,13 +159,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -259,7 +259,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,18 +537,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -577,7 +577,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -654,7 +654,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -731,84 +731,85 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>77.5</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="C4" s="5">
-        <v>75.8</v>
+        <v>69.7</v>
       </c>
       <c r="D4" s="5">
+        <v>58.3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>51.4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>52.8</v>
+      </c>
+      <c r="G4" s="5">
+        <v>55.1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>56.8</v>
+      </c>
+      <c r="I4" s="5">
+        <v>59.3</v>
+      </c>
+      <c r="J4" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="K4" s="5">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="L4" s="5">
+        <v>65.8</v>
+      </c>
+      <c r="M4" s="5">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="N4" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="O4" s="5">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="P4" s="5">
+        <v>67.2</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="R4" s="5">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="S4" s="5">
+        <v>69.2</v>
+      </c>
+      <c r="T4" s="5">
+        <v>71.7</v>
+      </c>
+      <c r="U4" s="5">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="V4" s="5">
         <v>72.400000000000006</v>
       </c>
-      <c r="E4" s="5">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="F4" s="5">
-        <v>70.3</v>
-      </c>
-      <c r="G4" s="5">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="H4" s="5">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="I4" s="5">
-        <v>67.3</v>
-      </c>
-      <c r="J4" s="5">
-        <v>67.2</v>
-      </c>
-      <c r="K4" s="5">
-        <v>67</v>
-      </c>
-      <c r="L4" s="5">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="M4" s="5">
-        <v>66.8</v>
-      </c>
-      <c r="N4" s="5">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="O4" s="5">
-        <v>66.38</v>
-      </c>
-      <c r="P4" s="5">
-        <v>66.349999999999994</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>66.3</v>
-      </c>
-      <c r="R4" s="5">
-        <v>66.260000000000005</v>
-      </c>
-      <c r="S4" s="5">
-        <v>66.150000000000006</v>
-      </c>
-      <c r="T4" s="5">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="U4" s="5">
-        <v>66.03</v>
-      </c>
-      <c r="V4" s="5">
-        <v>65.900000000000006</v>
-      </c>
       <c r="W4" s="5">
-        <v>65.599999999999994</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="X4" s="5">
-        <v>65.3</v>
+        <v>73.5</v>
       </c>
       <c r="Y4" s="5">
-        <v>65.099999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+        <v>75</v>
+      </c>
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -885,7 +886,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -962,7 +963,7 @@
         <v>10902</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>82958</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8" s="2"/>
       <c r="B8" s="8">
         <v>0</v>
@@ -1137,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1164,7 +1165,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1191,19 +1192,19 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15" s="2"/>
     </row>
   </sheetData>

--- a/T_data数据汇总.xlsx
+++ b/T_data数据汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelly Jinzhe Liu\Desktop\Big-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E14FDF1-3CD7-4072-8531-EAA15F6C4DF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9298CCFD-56F7-47B7-9A8B-AAB4FDDF52DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,6 +274,3402 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日期</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$Y$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$Y$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA3E-4DC8-9AFC-36D0A8AD36C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>资金(入)刘亿元</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$Y$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CA3E-4DC8-9AFC-36D0A8AD36C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>资金(出)朱亿元</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$Y$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$Y$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>238.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>381.96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187.84</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CA3E-4DC8-9AFC-36D0A8AD36C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="404427711"/>
+        <c:axId val="404428127"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="404427711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404428127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404428127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404427711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7931629980376944E-2"/>
+          <c:y val="6.7510474234198981E-2"/>
+          <c:w val="0.87453479340227536"/>
+          <c:h val="0.85570351174457626"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>客座率Lau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$Y$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$Y$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.03</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.099999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD0F-412B-912D-8851E618E105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="405153119"/>
+        <c:axId val="405152703"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="405153119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405152703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="405152703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405153119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>天上飞的机数越</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$Y$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3729</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4864</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4923</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5412</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5765</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6218</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7453</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7658</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7783</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7782</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8843</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9932</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11090</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5CA-4870-8FE6-CE4140492977}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="464951247"/>
+        <c:axId val="464956239"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="464951247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464956239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="464956239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464951247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C394D7E-0D04-44B5-BACB-BFB046888020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BEC8CF5-7971-487F-BBC6-B06D2FC83627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783C76EB-A89E-437E-89FF-B6DD2FCCB13F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -540,7 +3936,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -680,13 +4076,13 @@
         <v>297</v>
       </c>
       <c r="I3" s="5">
-        <v>226</v>
+        <v>295</v>
       </c>
       <c r="J3" s="5">
         <v>292</v>
       </c>
       <c r="K3" s="5">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="L3" s="5">
         <v>275</v>
@@ -695,7 +4091,7 @@
         <v>295</v>
       </c>
       <c r="N3" s="5">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="O3" s="5">
         <v>293</v>
@@ -890,13 +4286,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>16897</v>
+        <v>14897</v>
       </c>
       <c r="C6" s="5">
-        <v>18811</v>
+        <v>15811</v>
       </c>
       <c r="D6" s="5">
-        <v>10204</v>
+        <v>14204</v>
       </c>
       <c r="E6" s="5">
         <v>2783</v>
@@ -908,31 +4304,31 @@
         <v>3729</v>
       </c>
       <c r="H6" s="5">
-        <v>5408</v>
+        <v>4864</v>
       </c>
       <c r="I6" s="5">
-        <v>5790</v>
+        <v>4923</v>
       </c>
       <c r="J6" s="5">
-        <v>5312</v>
+        <v>5212</v>
       </c>
       <c r="K6" s="5">
-        <v>5265</v>
+        <v>5365</v>
       </c>
       <c r="L6" s="5">
-        <v>4864</v>
+        <v>5412</v>
       </c>
       <c r="M6" s="5">
-        <v>4923</v>
+        <v>5765</v>
       </c>
       <c r="N6" s="5">
         <v>6218</v>
       </c>
       <c r="O6" s="5">
-        <v>7432</v>
+        <v>7032</v>
       </c>
       <c r="P6" s="5">
-        <v>8053</v>
+        <v>7453</v>
       </c>
       <c r="Q6" s="5">
         <v>7658</v>
@@ -941,7 +4337,7 @@
         <v>7783</v>
       </c>
       <c r="S6" s="5">
-        <v>7482</v>
+        <v>7782</v>
       </c>
       <c r="T6" s="5">
         <v>8843</v>
@@ -1213,5 +4609,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/T_data数据汇总.xlsx
+++ b/T_data数据汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelly Jinzhe Liu\Desktop\Big-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7C6D6E-C4F3-4F06-8A19-EFF00E3CE4E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13ED8F7-DD8D-4F2C-9D97-1F374DDE28A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/T_data数据汇总.xlsx
+++ b/T_data数据汇总.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelly Jinzhe Liu\Desktop\Big-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggary\Desktop\新增資料夾\Big-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7C6D6E-C4F3-4F06-8A19-EFF00E3CE4E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011344B8-393F-46E5-8D25-4EDF6D80B075}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -90,7 +90,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -114,7 +114,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -143,7 +143,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,13 +159,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -259,7 +259,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -277,7 +277,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -330,13 +330,13 @@
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0999999999999996</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.2000000000000002</c:v>
@@ -345,7 +345,7 @@
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0999999999999996</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.2</c:v>
@@ -375,19 +375,19 @@
                   <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1999999999999993</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1999999999999993</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>8.1</c:v>
@@ -411,13 +411,13 @@
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0999999999999996</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.2000000000000002</c:v>
@@ -426,7 +426,7 @@
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0999999999999996</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.2</c:v>
@@ -456,19 +456,19 @@
                   <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1999999999999993</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1999999999999993</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>8.1</c:v>
@@ -525,13 +525,13 @@
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0999999999999996</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.2000000000000002</c:v>
@@ -540,7 +540,7 @@
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0999999999999996</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.2</c:v>
@@ -570,19 +570,19 @@
                   <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1999999999999993</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1999999999999993</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>8.1</c:v>
@@ -720,13 +720,13 @@
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0999999999999996</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.2000000000000002</c:v>
@@ -735,7 +735,7 @@
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0999999999999996</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.2</c:v>
@@ -765,19 +765,19 @@
                   <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1999999999999993</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1999999999999993</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>8.1</c:v>
@@ -929,7 +929,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="404428127"/>
@@ -988,7 +988,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="404427711"/>
@@ -1036,7 +1036,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-HK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1050,7 +1050,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1087,7 +1087,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-HK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1143,13 +1143,13 @@
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0999999999999996</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.2000000000000002</c:v>
@@ -1158,7 +1158,7 @@
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0999999999999996</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.2</c:v>
@@ -1188,19 +1188,19 @@
                   <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1999999999999993</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1999999999999993</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>8.1</c:v>
@@ -1355,7 +1355,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="405152703"/>
@@ -1414,7 +1414,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="405153119"/>
@@ -1462,7 +1462,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-HK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1476,7 +1476,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1513,7 +1513,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-HK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1559,13 +1559,13 @@
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0999999999999996</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.2000000000000002</c:v>
@@ -1574,7 +1574,7 @@
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0999999999999996</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.2</c:v>
@@ -1604,19 +1604,19 @@
                   <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1999999999999993</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1999999999999993</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>8.1</c:v>
@@ -1771,7 +1771,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="464956239"/>
@@ -1830,7 +1830,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="464951247"/>
@@ -1878,7 +1878,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-HK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3935,11 +3935,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="45.42578125" customWidth="1"/>
   </cols>
@@ -3981,13 +3981,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C2" s="4">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="D2" s="4">
         <v>1.3</v>
       </c>
       <c r="E2" s="4">
-        <v>2.0999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="F2" s="4">
         <v>2.2000000000000002</v>
@@ -3996,7 +3996,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H2" s="4">
-        <v>3.0999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="I2" s="4">
         <v>3.2</v>
@@ -4026,19 +4026,19 @@
         <v>6.1</v>
       </c>
       <c r="R2" s="4">
-        <v>6.1999999999999993</v>
+        <v>6.2</v>
       </c>
       <c r="S2" s="4">
-        <v>6.3000000000000007</v>
+        <v>6.3</v>
       </c>
       <c r="T2" s="4">
         <v>7.1</v>
       </c>
       <c r="U2" s="4">
-        <v>7.1999999999999993</v>
+        <v>7.2</v>
       </c>
       <c r="V2" s="4">
-        <v>7.3000000000000007</v>
+        <v>7.3</v>
       </c>
       <c r="W2" s="4">
         <v>8.1</v>

--- a/T_data数据汇总.xlsx
+++ b/T_data数据汇总.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggary\Desktop\新增資料夾\Big-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36182\Desktop\Big-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011344B8-393F-46E5-8D25-4EDF6D80B075}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A8C02-0DF9-47F7-9207-4B8333CEB77D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -71,7 +63,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -90,7 +82,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -114,7 +106,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -143,7 +135,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -155,17 +147,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -259,7 +251,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -277,7 +269,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -327,7 +319,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -408,7 +400,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -522,7 +514,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -717,7 +709,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -929,7 +921,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-HK"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="404428127"/>
@@ -988,7 +980,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-HK"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="404427711"/>
@@ -1036,7 +1028,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-HK"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1050,7 +1042,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1087,7 +1079,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-HK"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1140,7 +1132,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -1355,7 +1347,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-HK"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="405152703"/>
@@ -1414,7 +1406,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-HK"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="405153119"/>
@@ -1462,7 +1454,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-HK"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1476,7 +1468,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1513,7 +1505,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-HK"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1556,7 +1548,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -1771,7 +1763,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-HK"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="464956239"/>
@@ -1830,7 +1822,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-HK"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="464951247"/>
@@ -1878,7 +1870,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-HK"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3935,16 +3927,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -3973,12 +3965,12 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="C2" s="4">
         <v>1.2</v>
@@ -4050,7 +4042,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4127,7 +4119,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4204,7 +4196,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -4281,7 +4273,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,7 +4350,7 @@
         <v>10902</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -4435,7 +4427,7 @@
         <v>82958</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="8">
         <v>0</v>
@@ -4533,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4560,7 +4552,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4587,19 +4579,19 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
   </sheetData>

--- a/T_data数据汇总.xlsx
+++ b/T_data数据汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36182\Desktop\Big-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A8C02-0DF9-47F7-9207-4B8333CEB77D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED49EA5B-634A-47DA-AFB9-22F2A775CCB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3928,7 +3928,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/T_data数据汇总.xlsx
+++ b/T_data数据汇总.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36182\Desktop\Big-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinzhe Liu\Desktop\Big-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED49EA5B-634A-47DA-AFB9-22F2A775CCB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085046B4-87E9-439A-9316-8E19899308F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -319,7 +327,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -400,7 +408,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -514,7 +522,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -709,7 +717,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -1132,7 +1140,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -1548,7 +1556,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -3927,8 +3935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3970,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C2" s="4">
         <v>1.2</v>

--- a/T_data数据汇总.xlsx
+++ b/T_data数据汇总.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36182\Desktop\Big-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggary\Desktop\新增資料夾\Big-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED49EA5B-634A-47DA-AFB9-22F2A775CCB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9EC327-33E3-4592-892E-8B46232702E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="1500" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -63,7 +72,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -82,7 +91,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -106,7 +115,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -135,7 +144,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -147,17 +156,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -251,7 +260,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -269,7 +278,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -319,7 +328,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -400,7 +409,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -514,7 +523,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -709,7 +718,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -921,7 +930,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="404428127"/>
@@ -980,7 +989,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="404427711"/>
@@ -1028,7 +1037,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="zh-HK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1042,7 +1051,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1079,7 +1088,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="zh-HK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1132,7 +1141,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -1347,7 +1356,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="405152703"/>
@@ -1406,7 +1415,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="405153119"/>
@@ -1454,7 +1463,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="zh-HK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1468,7 +1477,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1505,7 +1514,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="zh-HK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1548,7 +1557,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.2</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2</c:v>
@@ -1763,7 +1772,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="464956239"/>
@@ -1822,7 +1831,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="464951247"/>
@@ -1870,7 +1879,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="zh-HK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3927,16 +3936,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -3965,12 +3974,12 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C2" s="4">
         <v>1.2</v>
@@ -4042,7 +4051,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4119,7 +4128,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4196,7 +4205,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -4273,7 +4282,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -4350,7 +4359,7 @@
         <v>10902</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -4427,7 +4436,7 @@
         <v>82958</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="2"/>
       <c r="B8" s="8">
         <v>0</v>
@@ -4525,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4552,7 +4561,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4579,19 +4588,19 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="2"/>
     </row>
   </sheetData>

--- a/T_data数据汇总.xlsx
+++ b/T_data数据汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggary\Desktop\新增資料夾\Big-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9EC327-33E3-4592-892E-8B46232702E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2B6862-DAC4-4ACE-8059-4F367725FAD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="1500" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
